--- a/out/test/Figori_algorithm_19.xlsx
+++ b/out/test/Figori_algorithm_19.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.76719999999999999</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="B1">
-        <v>0.85450000000000004</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="C1">
-        <v>0.68210000000000004</v>
+        <v>0.79779999999999995</v>
       </c>
       <c r="D1">
-        <v>0.82220000000000004</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="E1">
-        <v>0.86114999999999997</v>
+        <v>0.86680000000000001</v>
       </c>
       <c r="F1">
-        <v>0.82110000000000005</v>
+        <v>0.85724999999999996</v>
       </c>
       <c r="G1">
-        <v>0.79200000000000004</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="H1">
-        <v>0.82725000000000004</v>
+        <v>0.67359999999999998</v>
       </c>
       <c r="I1">
-        <v>0.80579999999999996</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="J1">
-        <v>0.86304999999999998</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="K1">
-        <v>0.6895</v>
+        <v>0.7923</v>
       </c>
       <c r="L1">
-        <v>0.86085</v>
+        <v>0.85165000000000002</v>
       </c>
       <c r="M1">
-        <v>0.82699999999999996</v>
+        <v>0.83650000000000002</v>
       </c>
       <c r="N1">
-        <v>0.79359999999999997</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="O1">
-        <v>0.82404999999999995</v>
+        <v>0.85824999999999996</v>
       </c>
       <c r="P1">
+        <v>0.85204999999999997</v>
+      </c>
+      <c r="Q1">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="R1">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="S1">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="T1">
+        <v>0.8387</v>
+      </c>
+      <c r="U1">
+        <v>0.81894999999999996</v>
+      </c>
+      <c r="V1">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="W1">
+        <v>0.8054</v>
+      </c>
+      <c r="X1">
+        <v>0.82384999999999997</v>
+      </c>
+      <c r="Y1">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="Z1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="AA1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AB1">
+        <v>0.85994999999999999</v>
+      </c>
+      <c r="AC1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AD1">
+        <v>0.85014999999999996</v>
+      </c>
+      <c r="AE1">
         <v>0.86339999999999995</v>
       </c>
-      <c r="Q1">
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="R1">
-        <v>0.86245000000000005</v>
-      </c>
-      <c r="S1">
-        <v>0.68330000000000002</v>
-      </c>
-      <c r="T1">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="U1">
-        <v>0.86850000000000005</v>
-      </c>
-      <c r="V1">
-        <v>0.85240000000000005</v>
-      </c>
-      <c r="W1">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="X1">
-        <v>0.86085</v>
-      </c>
-      <c r="Y1">
-        <v>0.77149999999999996</v>
-      </c>
-      <c r="Z1">
-        <v>0.82979999999999998</v>
-      </c>
-      <c r="AA1">
-        <v>0.85504999999999998</v>
-      </c>
-      <c r="AB1">
-        <v>0.81430000000000002</v>
-      </c>
-      <c r="AC1">
-        <v>0.76770000000000005</v>
-      </c>
-      <c r="AD1">
-        <v>0.86019999999999996</v>
-      </c>
-      <c r="AE1">
-        <v>0.77290000000000003</v>
-      </c>
       <c r="AF1">
-        <v>0.67649999999999999</v>
+        <v>0.68359999999999999</v>
       </c>
       <c r="AG1">
-        <v>0.85519999999999996</v>
+        <v>0.8609</v>
       </c>
       <c r="AH1">
-        <v>0.85729999999999995</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="AI1">
-        <v>0.86845000000000006</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="AJ1">
-        <v>0.80389999999999995</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="AK1">
-        <v>0.86175000000000002</v>
+        <v>0.85094999999999998</v>
       </c>
       <c r="AL1">
-        <v>0.8337</v>
+        <v>0.85724999999999996</v>
       </c>
       <c r="AM1">
-        <v>0.85550000000000004</v>
+        <v>0.81930000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.85640000000000005</v>
+        <v>0.86475000000000002</v>
       </c>
       <c r="AO1">
-        <v>0.86119999999999997</v>
+        <v>0.68459999999999999</v>
       </c>
       <c r="AP1">
-        <v>0.82994999999999997</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="AQ1">
-        <v>0.83130000000000004</v>
+        <v>0.80469999999999997</v>
       </c>
       <c r="AR1">
-        <v>0.82969999999999999</v>
+        <v>0.85260000000000002</v>
       </c>
       <c r="AS1">
-        <v>0.82609999999999995</v>
+        <v>0.8256</v>
       </c>
       <c r="AT1">
-        <v>0.83</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="AU1">
-        <v>0.8599</v>
+        <v>0.78879999999999995</v>
       </c>
       <c r="AV1">
-        <v>0.68020000000000003</v>
+        <v>0.8639</v>
       </c>
       <c r="AW1">
-        <v>0.83089999999999997</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="AX1">
-        <v>0.81940000000000002</v>
+        <v>0.8256</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.82509999999999994</v>
+        <v>0.66559999999999997</v>
       </c>
       <c r="B2">
-        <v>0.85940000000000005</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="C2">
-        <v>0.4491</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="D2">
-        <v>0.78410000000000002</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="E2">
-        <v>0.83320000000000005</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="F2">
-        <v>0.83379999999999999</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="G2">
-        <v>0.68135000000000001</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="H2">
-        <v>0.83650000000000002</v>
+        <v>0.54769999999999996</v>
       </c>
       <c r="I2">
-        <v>0.79249999999999998</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="J2">
-        <v>0.87375000000000003</v>
+        <v>0.87490000000000001</v>
       </c>
       <c r="K2">
-        <v>0.70279999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="L2">
-        <v>0.88670000000000004</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="M2">
-        <v>0.82189999999999996</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="N2">
-        <v>0.71989999999999998</v>
+        <v>0.8105</v>
       </c>
       <c r="O2">
-        <v>0.76</v>
+        <v>0.84389999999999998</v>
       </c>
       <c r="P2">
-        <v>0.81335000000000002</v>
+        <v>0.83945000000000003</v>
       </c>
       <c r="Q2">
-        <v>0.72450000000000003</v>
+        <v>0.86650000000000005</v>
       </c>
       <c r="R2">
-        <v>0.87214999999999998</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="S2">
-        <v>0.69769999999999999</v>
+        <v>0.72919999999999996</v>
       </c>
       <c r="T2">
-        <v>0.8085</v>
+        <v>0.86909999999999998</v>
       </c>
       <c r="U2">
-        <v>0.82509999999999994</v>
+        <v>0.75590000000000002</v>
       </c>
       <c r="V2">
-        <v>0.82004999999999995</v>
+        <v>0.77559999999999996</v>
       </c>
       <c r="W2">
-        <v>0.79300000000000004</v>
+        <v>0.80510000000000004</v>
       </c>
       <c r="X2">
-        <v>0.85519999999999996</v>
+        <v>0.69205000000000005</v>
       </c>
       <c r="Y2">
-        <v>0.7611</v>
+        <v>0.77710000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.80989999999999995</v>
+        <v>0.80320000000000003</v>
       </c>
       <c r="AA2">
-        <v>0.81010000000000004</v>
+        <v>0.59279999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.83094999999999997</v>
+        <v>0.87549999999999994</v>
       </c>
       <c r="AC2">
-        <v>0.70979999999999999</v>
+        <v>0.80279999999999996</v>
       </c>
       <c r="AD2">
-        <v>0.83360000000000001</v>
+        <v>0.80640000000000001</v>
       </c>
       <c r="AE2">
-        <v>0.76815</v>
+        <v>0.86</v>
       </c>
       <c r="AF2">
-        <v>0.75719999999999998</v>
+        <v>0.75329999999999997</v>
       </c>
       <c r="AG2">
-        <v>0.87050000000000005</v>
+        <v>0.86560000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.88780000000000003</v>
+        <v>0.6966</v>
       </c>
       <c r="AI2">
-        <v>0.79620000000000002</v>
+        <v>0.7853</v>
       </c>
       <c r="AJ2">
-        <v>0.75590000000000002</v>
+        <v>0.8538</v>
       </c>
       <c r="AK2">
-        <v>0.87590000000000001</v>
+        <v>0.77859999999999996</v>
       </c>
       <c r="AL2">
-        <v>0.84379999999999999</v>
+        <v>0.86029999999999995</v>
       </c>
       <c r="AM2">
-        <v>0.87</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="AN2">
-        <v>0.83809999999999996</v>
+        <v>0.71014999999999995</v>
       </c>
       <c r="AO2">
-        <v>0.81764999999999999</v>
+        <v>0.73880000000000001</v>
       </c>
       <c r="AP2">
-        <v>0.8075</v>
+        <v>0.79820000000000002</v>
       </c>
       <c r="AQ2">
-        <v>0.85399999999999998</v>
+        <v>0.81540000000000001</v>
       </c>
       <c r="AR2">
-        <v>0.87660000000000005</v>
+        <v>0.87370000000000003</v>
       </c>
       <c r="AS2">
-        <v>0.82099999999999995</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="AT2">
-        <v>0.86809999999999998</v>
+        <v>0.72260000000000002</v>
       </c>
       <c r="AU2">
-        <v>0.83620000000000005</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="AV2">
-        <v>0.61699999999999999</v>
+        <v>0.88090000000000002</v>
       </c>
       <c r="AW2">
-        <v>0.82340000000000002</v>
+        <v>0.78149999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.79039999999999999</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.80030000000000001</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="B3">
-        <v>0.6552</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="C3">
-        <v>0.46579999999999999</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="D3">
-        <v>0.7681</v>
+        <v>0.78879999999999995</v>
       </c>
       <c r="E3">
-        <v>0.77869999999999995</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="F3">
-        <v>0.7157</v>
+        <v>0.90085000000000004</v>
       </c>
       <c r="G3">
-        <v>0.47149999999999997</v>
+        <v>0.84889999999999999</v>
       </c>
       <c r="H3">
-        <v>0.68610000000000004</v>
+        <v>0.3125</v>
       </c>
       <c r="I3">
-        <v>0.84219999999999995</v>
+        <v>0.81640000000000001</v>
       </c>
       <c r="J3">
-        <v>0.93700000000000006</v>
+        <v>0.8196</v>
       </c>
       <c r="K3">
-        <v>0.48880000000000001</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="L3">
-        <v>0.83779999999999999</v>
+        <v>0.82345000000000002</v>
       </c>
       <c r="M3">
-        <v>0.83030000000000004</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="N3">
-        <v>0.77039999999999997</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="O3">
-        <v>0.64449999999999996</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="P3">
-        <v>0.90275000000000005</v>
+        <v>0.75985000000000003</v>
       </c>
       <c r="Q3">
-        <v>0.74209999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="R3">
-        <v>0.86885000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="S3">
-        <v>0.54990000000000006</v>
+        <v>0.56289999999999996</v>
       </c>
       <c r="T3">
-        <v>0.68659999999999999</v>
+        <v>0.86850000000000005</v>
       </c>
       <c r="U3">
-        <v>0.79579999999999995</v>
+        <v>0.63009999999999999</v>
       </c>
       <c r="V3">
-        <v>0.90439999999999998</v>
+        <v>0.59650000000000003</v>
       </c>
       <c r="W3">
-        <v>0.78820000000000001</v>
+        <v>0.58919999999999995</v>
       </c>
       <c r="X3">
-        <v>0.87680000000000002</v>
+        <v>0.55035000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.57240000000000002</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.77929999999999999</v>
+        <v>0.8538</v>
       </c>
       <c r="AA3">
-        <v>0.89690000000000003</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="AB3">
-        <v>0.89290000000000003</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="AC3">
-        <v>0.71450000000000002</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="AD3">
-        <v>0.80264999999999997</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.74390000000000001</v>
+        <v>0.73804999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.69540000000000002</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="AG3">
-        <v>0.88890000000000002</v>
+        <v>0.8196</v>
       </c>
       <c r="AH3">
-        <v>0.88970000000000005</v>
+        <v>0.60029999999999994</v>
       </c>
       <c r="AI3">
-        <v>0.68635000000000002</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="AJ3">
-        <v>0.63580000000000003</v>
+        <v>0.82279999999999998</v>
       </c>
       <c r="AK3">
-        <v>0.88749999999999996</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="AL3">
-        <v>0.88449999999999995</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="AM3">
-        <v>0.87429999999999997</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="AN3">
-        <v>0.83850000000000002</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="AO3">
-        <v>0.68859999999999999</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="AP3">
-        <v>0.72614999999999996</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="AQ3">
-        <v>0.86819999999999997</v>
+        <v>0.85519999999999996</v>
       </c>
       <c r="AR3">
-        <v>0.77180000000000004</v>
+        <v>0.68225000000000002</v>
       </c>
       <c r="AS3">
-        <v>0.82220000000000004</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="AT3">
-        <v>0.63390000000000002</v>
+        <v>0.58309999999999995</v>
       </c>
       <c r="AU3">
-        <v>0.77039999999999997</v>
+        <v>0.77459999999999996</v>
       </c>
       <c r="AV3">
-        <v>0.30380000000000001</v>
+        <v>0.78659999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.83169999999999999</v>
+        <v>0.64139999999999997</v>
       </c>
       <c r="AX3">
-        <v>0.53879999999999995</v>
+        <v>0.53590000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8468</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="B4">
-        <v>0.64410000000000001</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="C4">
-        <v>0.26690000000000003</v>
+        <v>0.3785</v>
       </c>
       <c r="D4">
-        <v>0.70609999999999995</v>
+        <v>0.76139999999999997</v>
       </c>
       <c r="E4">
-        <v>0.75129999999999997</v>
+        <v>0.72560000000000002</v>
       </c>
       <c r="F4">
-        <v>0.79449999999999998</v>
+        <v>0.81</v>
       </c>
       <c r="G4">
-        <v>0.56100000000000005</v>
+        <v>0.96240000000000003</v>
       </c>
       <c r="H4">
-        <v>0.51549999999999996</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="I4">
-        <v>0.85329999999999995</v>
+        <v>0.83140000000000003</v>
       </c>
       <c r="J4">
-        <v>0.84609999999999996</v>
+        <v>0.6895</v>
       </c>
       <c r="K4">
-        <v>0.5635</v>
+        <v>0.81630000000000003</v>
       </c>
       <c r="L4">
-        <v>0.55669999999999997</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="M4">
-        <v>0.86260000000000003</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="N4">
-        <v>0.49640000000000001</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="O4">
-        <v>0.59750000000000003</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="P4">
-        <v>0.82765</v>
+        <v>0.7631</v>
       </c>
       <c r="Q4">
-        <v>0.62649999999999995</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="R4">
-        <v>0.84850000000000003</v>
+        <v>0.40489999999999998</v>
       </c>
       <c r="S4">
-        <v>0.90629999999999999</v>
+        <v>0.55159999999999998</v>
       </c>
       <c r="T4">
-        <v>0.60089999999999999</v>
+        <v>0.75939999999999996</v>
       </c>
       <c r="U4">
-        <v>0.76480000000000004</v>
+        <v>0.54359999999999997</v>
       </c>
       <c r="V4">
-        <v>0.89729999999999999</v>
+        <v>0.56920000000000004</v>
       </c>
       <c r="W4">
-        <v>0.80900000000000005</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="X4">
-        <v>0.77070000000000005</v>
+        <v>0.27615000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.62439999999999996</v>
+        <v>0.8196</v>
       </c>
       <c r="Z4">
-        <v>0.78759999999999997</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="AA4">
-        <v>0.8659</v>
+        <v>0.49590000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.74039999999999995</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="AC4">
-        <v>0.65859999999999996</v>
+        <v>0.76549999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.74660000000000004</v>
+        <v>0.77939999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.80420000000000003</v>
+        <v>0.85660000000000003</v>
       </c>
       <c r="AF4">
-        <v>0.67459999999999998</v>
+        <v>0.51990000000000003</v>
       </c>
       <c r="AG4">
-        <v>0.84640000000000004</v>
+        <v>0.64590000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.95109999999999995</v>
+        <v>0.43730000000000002</v>
       </c>
       <c r="AI4">
-        <v>0.51980000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="AJ4">
-        <v>0.28989999999999999</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="AK4">
-        <v>0.45100000000000001</v>
+        <v>0.72719999999999996</v>
       </c>
       <c r="AL4">
-        <v>0.83809999999999996</v>
+        <v>0.5302</v>
       </c>
       <c r="AM4">
-        <v>0.73160000000000003</v>
+        <v>0.79669999999999996</v>
       </c>
       <c r="AN4">
-        <v>0.73265000000000002</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AO4">
-        <v>0.87960000000000005</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="AP4">
-        <v>0.67249999999999999</v>
+        <v>0.79269999999999996</v>
       </c>
       <c r="AQ4">
-        <v>0.94499999999999995</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="AR4">
-        <v>0.66159999999999997</v>
+        <v>0.6845</v>
       </c>
       <c r="AS4">
-        <v>0.76819999999999999</v>
+        <v>0.67430000000000001</v>
       </c>
       <c r="AT4">
-        <v>0.74060000000000004</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="AU4">
-        <v>0.68445</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="AV4">
-        <v>0.1169</v>
+        <v>0.76870000000000005</v>
       </c>
       <c r="AW4">
-        <v>0.81530000000000002</v>
+        <v>0.55979999999999996</v>
       </c>
       <c r="AX4">
-        <v>0.37859999999999999</v>
+        <v>0.3422</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.91849999999999998</v>
+        <v>0.51580000000000004</v>
       </c>
       <c r="B5">
-        <v>0.65880000000000005</v>
+        <v>0.42380000000000001</v>
       </c>
       <c r="C5">
-        <v>0.38690000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="D5">
-        <v>0.58069999999999999</v>
+        <v>0.75949999999999995</v>
       </c>
       <c r="E5">
-        <v>0.46500000000000002</v>
+        <v>0.71060000000000001</v>
       </c>
       <c r="F5">
-        <v>0.62070000000000003</v>
+        <v>0.83150000000000002</v>
       </c>
       <c r="G5">
-        <v>0.40239999999999998</v>
+        <v>0.72609999999999997</v>
       </c>
       <c r="H5">
-        <v>0.26929999999999998</v>
+        <v>0.54869999999999997</v>
       </c>
       <c r="I5">
-        <v>0.70920000000000005</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="J5">
-        <v>0.82589999999999997</v>
+        <v>0.50829999999999997</v>
       </c>
       <c r="K5">
-        <v>0.25140000000000001</v>
+        <v>0.64849999999999997</v>
       </c>
       <c r="L5">
-        <v>0.52980000000000005</v>
+        <v>0.81289999999999996</v>
       </c>
       <c r="M5">
-        <v>0.96530000000000005</v>
+        <v>0.51419999999999999</v>
       </c>
       <c r="N5">
-        <v>0.32950000000000002</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="O5">
-        <v>0.59260000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="P5">
-        <v>0.90790000000000004</v>
+        <v>0.81740000000000002</v>
       </c>
       <c r="Q5">
-        <v>0.60899999999999999</v>
+        <v>0.82210000000000005</v>
       </c>
       <c r="R5">
-        <v>0.71950000000000003</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="S5">
-        <v>0.58679999999999999</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="T5">
-        <v>0.60375000000000001</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="U5">
-        <v>0.63970000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="V5">
-        <v>0.84019999999999995</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="W5">
-        <v>0.55149999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="X5">
-        <v>0.80359999999999998</v>
+        <v>0.20344999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.40429999999999999</v>
+        <v>0.72289999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.62209999999999999</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="AA5">
-        <v>0.80149999999999999</v>
+        <v>0.1525</v>
       </c>
       <c r="AB5">
-        <v>0.60150000000000003</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="AC5">
-        <v>0.60909999999999997</v>
+        <v>0.7984</v>
       </c>
       <c r="AD5">
-        <v>0.5161</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AE5">
-        <v>0.68230000000000002</v>
+        <v>0.626</v>
       </c>
       <c r="AF5">
-        <v>0.78090000000000004</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.77539999999999998</v>
+        <v>0.77910000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.92749999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.21110000000000001</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="AJ5">
-        <v>0.318</v>
+        <v>0.66920000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.76980000000000004</v>
+        <v>0.5615</v>
       </c>
       <c r="AL5">
-        <v>0.81420000000000003</v>
+        <v>0.40060000000000001</v>
       </c>
       <c r="AM5">
-        <v>0.77800000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="AN5">
-        <v>0.82630000000000003</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.75690000000000002</v>
+        <v>0.51570000000000005</v>
       </c>
       <c r="AP5">
-        <v>0.72060000000000002</v>
+        <v>0.57420000000000004</v>
       </c>
       <c r="AQ5">
-        <v>0.5575</v>
+        <v>0.82620000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.57840000000000003</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="AS5">
-        <v>0.81420000000000003</v>
+        <v>0.72970000000000002</v>
       </c>
       <c r="AT5">
-        <v>0.8498</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.84689999999999999</v>
+        <v>0.90369999999999995</v>
       </c>
       <c r="AV5">
-        <v>0.1447</v>
+        <v>0.63629999999999998</v>
       </c>
       <c r="AW5">
-        <v>0.79879999999999995</v>
+        <v>0.56379999999999997</v>
       </c>
       <c r="AX5">
-        <v>0.71250000000000002</v>
+        <v>0.33090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.42959999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="B6">
-        <v>0.73619999999999997</v>
+        <v>0.54620000000000002</v>
       </c>
       <c r="C6">
-        <v>0.32019999999999998</v>
+        <v>0.4819</v>
       </c>
       <c r="D6">
-        <v>0.5736</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="E6">
-        <v>0.42449999999999999</v>
+        <v>0.51910000000000001</v>
       </c>
       <c r="F6">
-        <v>0.73660000000000003</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="G6">
-        <v>0.45950000000000002</v>
+        <v>0.78590000000000004</v>
       </c>
       <c r="H6">
-        <v>0.31869999999999998</v>
+        <v>0.50160000000000005</v>
       </c>
       <c r="I6">
-        <v>0.36470000000000002</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="J6">
-        <v>0.73650000000000004</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="K6">
-        <v>0.85489999999999999</v>
+        <v>0.6321</v>
       </c>
       <c r="L6">
-        <v>0.83040000000000003</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="M6">
-        <v>0.91020000000000001</v>
+        <v>0.68679999999999997</v>
       </c>
       <c r="N6">
-        <v>0.28770000000000001</v>
+        <v>0.7218</v>
       </c>
       <c r="O6">
-        <v>0.75285000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="P6">
-        <v>0.81240000000000001</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="Q6">
-        <v>0.32479999999999998</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="R6">
-        <v>0.56159999999999999</v>
+        <v>0.44319999999999998</v>
       </c>
       <c r="S6">
-        <v>0.45839999999999997</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="T6">
-        <v>0.44840000000000002</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="U6">
-        <v>0.48599999999999999</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="V6">
-        <v>0.72189999999999999</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="W6">
-        <v>0.46949999999999997</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="X6">
-        <v>0.85840000000000005</v>
+        <v>0.24610000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.45179999999999998</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.53110000000000002</v>
+        <v>0.79510000000000003</v>
       </c>
       <c r="AA6">
-        <v>0.86990000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AB6">
-        <v>0.52680000000000005</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AC6">
-        <v>0.34499999999999997</v>
+        <v>0.64559999999999995</v>
       </c>
       <c r="AD6">
-        <v>0.62680000000000002</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="AE6">
-        <v>0.60909999999999997</v>
+        <v>0.68769999999999998</v>
       </c>
       <c r="AF6">
-        <v>0.5766</v>
+        <v>0.60389999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.60240000000000005</v>
+        <v>0.4904</v>
       </c>
       <c r="AH6">
-        <v>0.71020000000000005</v>
+        <v>0.3826</v>
       </c>
       <c r="AI6">
-        <v>5.7500000000000002E-2</v>
+        <v>0.20949999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.58960000000000001</v>
+        <v>0.36680000000000001</v>
       </c>
       <c r="AK6">
-        <v>0.69279999999999997</v>
+        <v>0.77890000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.83909999999999996</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="AM6">
-        <v>0.84</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="AN6">
-        <v>0.82930000000000004</v>
+        <v>0.78890000000000005</v>
       </c>
       <c r="AO6">
-        <v>0.83620000000000005</v>
+        <v>0.26750000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.47889999999999999</v>
+        <v>0.47360000000000002</v>
       </c>
       <c r="AQ6">
-        <v>0.44679999999999997</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="AR6">
-        <v>0.59079999999999999</v>
+        <v>0.66439999999999999</v>
       </c>
       <c r="AS6">
-        <v>0.80979999999999996</v>
+        <v>0.36320000000000002</v>
       </c>
       <c r="AT6">
-        <v>0.89629999999999999</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="AU6">
-        <v>0.90210000000000001</v>
+        <v>0.69379999999999997</v>
       </c>
       <c r="AV6">
-        <v>0.26140000000000002</v>
+        <v>0.52949999999999997</v>
       </c>
       <c r="AW6">
-        <v>0.79869999999999997</v>
+        <v>0.40860000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.6825</v>
+        <v>0.58909999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.38250000000000001</v>
+        <v>0.30280000000000001</v>
       </c>
       <c r="B7">
-        <v>0.3871</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="C7">
-        <v>0.50319999999999998</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="D7">
-        <v>0.38080000000000003</v>
+        <v>0.50690000000000002</v>
       </c>
       <c r="E7">
-        <v>0.4461</v>
+        <v>0.40160000000000001</v>
       </c>
       <c r="F7">
-        <v>0.69379999999999997</v>
+        <v>0.79779999999999995</v>
       </c>
       <c r="G7">
-        <v>0.1925</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H7">
-        <v>0.53029999999999999</v>
+        <v>0.46939999999999998</v>
       </c>
       <c r="I7">
-        <v>0.188</v>
+        <v>0.86519999999999997</v>
       </c>
       <c r="J7">
-        <v>0.85319999999999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K7">
-        <v>0.6754</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="L7">
-        <v>0.92190000000000005</v>
+        <v>0.88280000000000003</v>
       </c>
       <c r="M7">
-        <v>0.79759999999999998</v>
+        <v>0.6109</v>
       </c>
       <c r="N7">
-        <v>2.3800000000000002E-2</v>
+        <v>0.71160000000000001</v>
       </c>
       <c r="O7">
-        <v>0.80249999999999999</v>
+        <v>0.48020000000000002</v>
       </c>
       <c r="P7">
-        <v>0.81689999999999996</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.188</v>
+        <v>0.65339999999999998</v>
       </c>
       <c r="R7">
-        <v>0.44579999999999997</v>
+        <v>0.49159999999999998</v>
       </c>
       <c r="S7">
-        <v>0.42970000000000003</v>
+        <v>0.37280000000000002</v>
       </c>
       <c r="T7">
-        <v>0.26950000000000002</v>
+        <v>0.48409999999999997</v>
       </c>
       <c r="U7">
-        <v>0.56369999999999998</v>
+        <v>0.47339999999999999</v>
       </c>
       <c r="V7">
-        <v>0.57899999999999996</v>
+        <v>0.3755</v>
       </c>
       <c r="W7">
-        <v>0.4446</v>
+        <v>0.1234</v>
       </c>
       <c r="X7">
-        <v>0.88029999999999997</v>
+        <v>0.184</v>
       </c>
       <c r="Y7">
-        <v>0.68520000000000003</v>
+        <v>0.40329999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.21840000000000001</v>
+        <v>0.79190000000000005</v>
       </c>
       <c r="AA7">
-        <v>0.91069999999999995</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="AB7">
-        <v>0.63670000000000004</v>
+        <v>0.7954</v>
       </c>
       <c r="AC7">
-        <v>4.7E-2</v>
+        <v>0.31790000000000002</v>
       </c>
       <c r="AD7">
-        <v>0.75580000000000003</v>
+        <v>0.87150000000000005</v>
       </c>
       <c r="AE7">
-        <v>0.82809999999999995</v>
+        <v>0.55669999999999997</v>
       </c>
       <c r="AF7">
-        <v>0.66300000000000003</v>
+        <v>0.60460000000000003</v>
       </c>
       <c r="AG7">
-        <v>0.63360000000000005</v>
+        <v>0.44479999999999997</v>
       </c>
       <c r="AH7">
-        <v>0.48110000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="AI7">
-        <v>7.6799999999999993E-2</v>
+        <v>0.1741</v>
       </c>
       <c r="AJ7">
-        <v>0.55389999999999995</v>
+        <v>0.4577</v>
       </c>
       <c r="AK7">
-        <v>0.76729999999999998</v>
+        <v>0.55349999999999999</v>
       </c>
       <c r="AL7">
-        <v>0.45600000000000002</v>
+        <v>0.3977</v>
       </c>
       <c r="AM7">
-        <v>0.75519999999999998</v>
+        <v>0.18840000000000001</v>
       </c>
       <c r="AN7">
-        <v>0.54259999999999997</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.84340000000000004</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="AP7">
-        <v>0.63880000000000003</v>
+        <v>0.2089</v>
       </c>
       <c r="AQ7">
-        <v>0.29299999999999998</v>
+        <v>0.39789999999999998</v>
       </c>
       <c r="AR7">
-        <v>0.49719999999999998</v>
+        <v>0.72929999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.79049999999999998</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="AT7">
-        <v>0.74509999999999998</v>
+        <v>0.27210000000000001</v>
       </c>
       <c r="AU7">
-        <v>0.72350000000000003</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="AV7">
-        <v>0.25669999999999998</v>
+        <v>0.6109</v>
       </c>
       <c r="AW7">
-        <v>0.65200000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="AX7">
-        <v>0.59140000000000004</v>
+        <v>0.4914</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.6724</v>
+        <v>0.36330000000000001</v>
       </c>
       <c r="B8">
-        <v>0.39450000000000002</v>
+        <v>0.56859999999999999</v>
       </c>
       <c r="C8">
-        <v>0.46389999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D8">
-        <v>0.1246</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="E8">
-        <v>0.5968</v>
+        <v>0.24879999999999999</v>
       </c>
       <c r="F8">
-        <v>0.79279999999999995</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="G8">
-        <v>6.6199999999999995E-2</v>
+        <v>0.6129</v>
       </c>
       <c r="H8">
-        <v>0.2989</v>
+        <v>0.4083</v>
       </c>
       <c r="I8">
-        <v>0.28310000000000002</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="J8">
-        <v>0.68989999999999996</v>
+        <v>0.4607</v>
       </c>
       <c r="K8">
-        <v>0.1605</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="L8">
-        <v>0.4834</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="M8">
-        <v>0.4551</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="N8">
-        <v>1.54E-2</v>
+        <v>0.52129999999999999</v>
       </c>
       <c r="O8">
-        <v>0.80779999999999996</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="P8">
-        <v>0.47420000000000001</v>
+        <v>0.8276</v>
       </c>
       <c r="Q8">
-        <v>0.13869999999999999</v>
+        <v>0.22620000000000001</v>
       </c>
       <c r="R8">
-        <v>0.57569999999999999</v>
+        <v>0.49149999999999999</v>
       </c>
       <c r="S8">
-        <v>0.22309999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="T8">
-        <v>0.33160000000000001</v>
+        <v>0.85650000000000004</v>
       </c>
       <c r="U8">
-        <v>0.51580000000000004</v>
+        <v>0.53920000000000001</v>
       </c>
       <c r="V8">
-        <v>0.70409999999999995</v>
+        <v>0.28489999999999999</v>
       </c>
       <c r="W8">
-        <v>0.46260000000000001</v>
+        <v>0.1424</v>
       </c>
       <c r="X8">
-        <v>0.79320000000000002</v>
+        <v>0.2087</v>
       </c>
       <c r="Y8">
-        <v>0.65100000000000002</v>
+        <v>0.5383</v>
       </c>
       <c r="Z8">
-        <v>0.2823</v>
+        <v>0.81189999999999996</v>
       </c>
       <c r="AA8">
-        <v>0.72499999999999998</v>
+        <v>0.10780000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.86580000000000001</v>
+        <v>0.81569999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.2472</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="AD8">
-        <v>0.63439999999999996</v>
+        <v>0.50229999999999997</v>
       </c>
       <c r="AE8">
-        <v>0.92359999999999998</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.71760000000000002</v>
+        <v>0.89749999999999996</v>
       </c>
       <c r="AG8">
-        <v>0.1265</v>
+        <v>0.2273</v>
       </c>
       <c r="AH8">
-        <v>0.56710000000000005</v>
+        <v>0.48659999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.18629999999999999</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="AJ8">
-        <v>0.74614999999999998</v>
+        <v>0.48230000000000001</v>
       </c>
       <c r="AK8">
-        <v>0.60740000000000005</v>
+        <v>0.49790000000000001</v>
       </c>
       <c r="AL8">
-        <v>0.41720000000000002</v>
+        <v>0.50039999999999996</v>
       </c>
       <c r="AM8">
-        <v>0.8871</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="AN8">
-        <v>0.5806</v>
+        <v>0.55430000000000001</v>
       </c>
       <c r="AO8">
-        <v>0.86219999999999997</v>
+        <v>0.57210000000000005</v>
       </c>
       <c r="AP8">
-        <v>0.61899999999999999</v>
+        <v>0.3453</v>
       </c>
       <c r="AQ8">
-        <v>0.44019999999999998</v>
+        <v>0.68</v>
       </c>
       <c r="AR8">
-        <v>0.53120000000000001</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="AS8">
-        <v>0.57569999999999999</v>
+        <v>0.63519999999999999</v>
       </c>
       <c r="AT8">
-        <v>0.81330000000000002</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.54700000000000004</v>
+        <v>0.83279999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.1525</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="AW8">
-        <v>0.17799999999999999</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="AX8">
-        <v>0.36399999999999999</v>
+        <v>0.28120000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.36320000000000002</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="B9">
-        <v>0.76880000000000004</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="C9">
-        <v>0.4945</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="D9">
-        <v>0.15340000000000001</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="E9">
-        <v>0.51149999999999995</v>
+        <v>0.25640000000000002</v>
       </c>
       <c r="F9">
-        <v>0.53649999999999998</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="G9">
-        <v>0.15870000000000001</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="H9">
-        <v>0.2261</v>
+        <v>0.69420000000000004</v>
       </c>
       <c r="I9">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="M9">
+        <v>0.67</v>
+      </c>
+      <c r="N9">
+        <v>0.4541</v>
+      </c>
+      <c r="O9">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="Q9">
         <v>0.24579999999999999</v>
       </c>
-      <c r="J9">
-        <v>0.67779999999999996</v>
-      </c>
-      <c r="K9">
-        <v>0.28889999999999999</v>
-      </c>
-      <c r="L9">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="M9">
-        <v>0.5534</v>
-      </c>
-      <c r="N9">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="O9">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="P9">
-        <v>0.1033</v>
-      </c>
-      <c r="Q9">
-        <v>7.4499999999999997E-2</v>
-      </c>
       <c r="R9">
-        <v>0.33560000000000001</v>
+        <v>0.1236</v>
       </c>
       <c r="S9">
-        <v>0.34420000000000001</v>
+        <v>0.15459999999999999</v>
       </c>
       <c r="T9">
-        <v>0.43609999999999999</v>
+        <v>0.6875</v>
       </c>
       <c r="U9">
-        <v>0.52539999999999998</v>
+        <v>0.52569999999999995</v>
       </c>
       <c r="V9">
-        <v>0.34699999999999998</v>
+        <v>0.16650000000000001</v>
       </c>
       <c r="W9">
-        <v>0.56699999999999995</v>
+        <v>0.19620000000000001</v>
       </c>
       <c r="X9">
-        <v>0.62380000000000002</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.77869999999999995</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.186</v>
+        <v>0.89980000000000004</v>
       </c>
       <c r="AA9">
-        <v>0.61180000000000001</v>
+        <v>0.41889999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.61470000000000002</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="AC9">
-        <v>5.7599999999999998E-2</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="AD9">
-        <v>0.70609999999999995</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="AE9">
-        <v>0.84889999999999999</v>
+        <v>0.2137</v>
       </c>
       <c r="AF9">
-        <v>0.88180000000000003</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="AG9">
-        <v>1.0999999999999999E-2</v>
+        <v>0.1081</v>
       </c>
       <c r="AH9">
-        <v>0.46460000000000001</v>
+        <v>0.39119999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.23580000000000001</v>
+        <v>0.48730000000000001</v>
       </c>
       <c r="AJ9">
-        <v>0.4672</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.54359999999999997</v>
+        <v>0.50290000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.41789999999999999</v>
+        <v>0.46379999999999999</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.1217</v>
       </c>
       <c r="AN9">
-        <v>0.2873</v>
+        <v>0.59240000000000004</v>
       </c>
       <c r="AO9">
-        <v>0.70220000000000005</v>
+        <v>0.82789999999999997</v>
       </c>
       <c r="AP9">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="AQ9">
-        <v>0.60950000000000004</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="AR9">
-        <v>0.5554</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.1925</v>
+        <v>0.61709999999999998</v>
       </c>
       <c r="AT9">
-        <v>0.53720000000000001</v>
+        <v>0.3795</v>
       </c>
       <c r="AU9">
-        <v>0.63629999999999998</v>
+        <v>0.64690000000000003</v>
       </c>
       <c r="AV9">
-        <v>4.7999999999999996E-3</v>
+        <v>0.6966</v>
       </c>
       <c r="AW9">
-        <v>0.2147</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="AX9">
-        <v>0.36620000000000003</v>
+        <v>0.48430000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.76100000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="B10">
-        <v>0.86629999999999996</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="C10">
-        <v>0.41149999999999998</v>
+        <v>0.5706</v>
       </c>
       <c r="D10">
-        <v>0.24940000000000001</v>
+        <v>0.47120000000000001</v>
       </c>
       <c r="E10">
-        <v>0.4677</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F10">
-        <v>0.57520000000000004</v>
+        <v>0.28960000000000002</v>
       </c>
       <c r="G10">
-        <v>0.37359999999999999</v>
+        <v>0.49669999999999997</v>
       </c>
       <c r="H10">
-        <v>0.10929999999999999</v>
+        <v>0.81489999999999996</v>
       </c>
       <c r="I10">
-        <v>0.48480000000000001</v>
+        <v>0.51690000000000003</v>
       </c>
       <c r="J10">
-        <v>0.63939999999999997</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="K10">
-        <v>0.57799999999999996</v>
+        <v>0.2828</v>
       </c>
       <c r="L10">
-        <v>0.36859999999999998</v>
+        <v>0.87909999999999999</v>
       </c>
       <c r="M10">
-        <v>0.86609999999999998</v>
+        <v>0.79590000000000005</v>
       </c>
       <c r="N10">
-        <v>4.48E-2</v>
+        <v>0.44130000000000003</v>
       </c>
       <c r="O10">
-        <v>0.67459999999999998</v>
+        <v>0.24460000000000001</v>
       </c>
       <c r="P10">
-        <v>0.1041</v>
+        <v>0.69850000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.11269999999999999</v>
+        <v>0.22789999999999999</v>
       </c>
       <c r="R10">
-        <v>0.37330000000000002</v>
+        <v>0.13539999999999999</v>
       </c>
       <c r="S10">
-        <v>0.21210000000000001</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="T10">
-        <v>0.25080000000000002</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="U10">
-        <v>0.48549999999999999</v>
+        <v>0.4879</v>
       </c>
       <c r="V10">
-        <v>0.77129999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="W10">
-        <v>0.48520000000000002</v>
+        <v>0.18379999999999999</v>
       </c>
       <c r="X10">
-        <v>0.44619999999999999</v>
+        <v>0.23619999999999999</v>
       </c>
       <c r="Y10">
-        <v>0.67530000000000001</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.4486</v>
+        <v>0.72030000000000005</v>
       </c>
       <c r="AA10">
-        <v>0.45340000000000003</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.68410000000000004</v>
+        <v>0.74309999999999998</v>
       </c>
       <c r="AC10">
-        <v>0.21190000000000001</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="AD10">
-        <v>0.88729999999999998</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="AE10">
-        <v>0.68830000000000002</v>
+        <v>0.16639999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.80479999999999996</v>
+        <v>0.62609999999999999</v>
       </c>
       <c r="AG10">
-        <v>1.84E-2</v>
+        <v>0.24640000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.67879999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="AI10">
-        <v>0.23760000000000001</v>
+        <v>0.40849999999999997</v>
       </c>
       <c r="AJ10">
-        <v>0.44230000000000003</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="AK10">
-        <v>0.62419999999999998</v>
+        <v>0.50929999999999997</v>
       </c>
       <c r="AL10">
-        <v>0.3518</v>
+        <v>0.60070000000000001</v>
       </c>
       <c r="AM10">
-        <v>0.96079999999999999</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="AN10">
-        <v>0.45050000000000001</v>
+        <v>0.46860000000000002</v>
       </c>
       <c r="AO10">
-        <v>0.55520000000000003</v>
+        <v>0.81310000000000004</v>
       </c>
       <c r="AP10">
-        <v>0.54630000000000001</v>
+        <v>0.45550000000000002</v>
       </c>
       <c r="AQ10">
-        <v>0.66579999999999995</v>
+        <v>0.50260000000000005</v>
       </c>
       <c r="AR10">
-        <v>0.54010000000000002</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="AS10">
-        <v>0.21249999999999999</v>
+        <v>0.57989999999999997</v>
       </c>
       <c r="AT10">
-        <v>0.37690000000000001</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="AU10">
-        <v>0.66410000000000002</v>
+        <v>0.2319</v>
       </c>
       <c r="AV10">
-        <v>7.0000000000000001E-3</v>
+        <v>0.6512</v>
       </c>
       <c r="AW10">
-        <v>0.17680000000000001</v>
+        <v>0.1585</v>
       </c>
       <c r="AX10">
-        <v>0.27779999999999999</v>
+        <v>0.74970000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.87</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="B11">
-        <v>0.77290000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C11">
-        <v>0.86850000000000005</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="D11">
-        <v>0.21879999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E11">
-        <v>0.58440000000000003</v>
+        <v>0.32419999999999999</v>
       </c>
       <c r="F11">
-        <v>0.45810000000000001</v>
+        <v>0.15720000000000001</v>
       </c>
       <c r="G11">
-        <v>0.3765</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="H11">
-        <v>0.33539999999999998</v>
+        <v>0.93459999999999999</v>
       </c>
       <c r="I11">
-        <v>0.61929999999999996</v>
+        <v>0.1898</v>
       </c>
       <c r="J11">
-        <v>0.57840000000000003</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="K11">
-        <v>0.5484</v>
+        <v>0.2077</v>
       </c>
       <c r="L11">
-        <v>0.48630000000000001</v>
+        <v>0.54979999999999996</v>
       </c>
       <c r="M11">
-        <v>0.66620000000000001</v>
+        <v>0.73670000000000002</v>
       </c>
       <c r="N11">
-        <v>2.8899999999999999E-2</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="O11">
-        <v>0.50549999999999995</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="P11">
-        <v>0.14410000000000001</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.1968</v>
+        <v>4.87E-2</v>
       </c>
       <c r="R11">
-        <v>0.45400000000000001</v>
+        <v>0.22189999999999999</v>
       </c>
       <c r="S11">
-        <v>0.43099999999999999</v>
+        <v>0.1903</v>
       </c>
       <c r="T11">
-        <v>0.1255</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="U11">
-        <v>0.64480000000000004</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="V11">
-        <v>0.73599999999999999</v>
+        <v>0.3407</v>
       </c>
       <c r="W11">
-        <v>0.63639999999999997</v>
+        <v>0.15559999999999999</v>
       </c>
       <c r="X11">
-        <v>0.43890000000000001</v>
+        <v>0.2676</v>
       </c>
       <c r="Y11">
-        <v>0.41399999999999998</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.68579999999999997</v>
+        <v>0.4909</v>
       </c>
       <c r="AA11">
-        <v>0.21970000000000001</v>
+        <v>0.59730000000000005</v>
       </c>
       <c r="AB11">
-        <v>0.72819999999999996</v>
+        <v>0.73229999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.2767</v>
+        <v>0.3674</v>
       </c>
       <c r="AD11">
-        <v>0.86519999999999997</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.68930000000000002</v>
+        <v>0.36620000000000003</v>
       </c>
       <c r="AF11">
-        <v>0.85140000000000005</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="AG11">
-        <v>2.7300000000000001E-2</v>
+        <v>0.39450000000000002</v>
       </c>
       <c r="AH11">
-        <v>0.65780000000000005</v>
+        <v>0.4027</v>
       </c>
       <c r="AI11">
-        <v>0.71289999999999998</v>
+        <v>0.54259999999999997</v>
       </c>
       <c r="AJ11">
-        <v>0.25059999999999999</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.72909999999999997</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="AL11">
-        <v>0.1255</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="AM11">
-        <v>0.8579</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="AN11">
-        <v>0.60750000000000004</v>
+        <v>0.31659999999999999</v>
       </c>
       <c r="AO11">
-        <v>0.86129999999999995</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="AP11">
-        <v>0.67779999999999996</v>
+        <v>0.5837</v>
       </c>
       <c r="AQ11">
-        <v>0.72440000000000004</v>
+        <v>0.27410000000000001</v>
       </c>
       <c r="AR11">
-        <v>0.65769999999999995</v>
+        <v>0.7752</v>
       </c>
       <c r="AS11">
-        <v>0.15379999999999999</v>
+        <v>0.54820000000000002</v>
       </c>
       <c r="AT11">
-        <v>0.25740000000000002</v>
+        <v>1.95E-2</v>
       </c>
       <c r="AU11">
-        <v>0.26840000000000003</v>
+        <v>0.26479999999999998</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.58250000000000002</v>
       </c>
       <c r="AW11">
-        <v>0.2445</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.29980000000000001</v>
+        <v>0.85840000000000005</v>
       </c>
     </row>
   </sheetData>
